--- a/Stability/wind_tunnel_test/data.xlsx
+++ b/Stability/wind_tunnel_test/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e651656edff7f845/Desktop/Year 3/Q4 - DSE/DSE-Group16/Stability/wind_tunnel_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1C45F6985BB05064777B3711595ED87656CC637E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C1F873-BF91-4C02-B6D6-4D4EC89A9AB8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_1C45F6985BB05064777B3711595ED87656CC637E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F48BFFC-E54C-4329-83D3-BF69CA3B7294}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
   <si>
     <t>test series</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Moment</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I199"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,16 +452,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
       <c r="G2">
         <v>-2.1052148335698169</v>
@@ -472,22 +475,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
       <c r="G3">
         <v>-0.57895515931006769</v>
@@ -501,22 +504,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
       <c r="G4">
         <v>-1.287281973039589</v>
@@ -530,22 +533,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>0.1</v>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
       <c r="G5">
         <v>-0.40182925073132802</v>
@@ -559,22 +562,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>185</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
       <c r="G6">
         <v>-1.134549037892276</v>
@@ -588,7 +591,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -599,11 +602,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
       </c>
       <c r="G7">
         <v>-2.3829568318191008</v>
@@ -617,10 +620,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -628,11 +631,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>0.1</v>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
       </c>
       <c r="G8">
         <v>-0.42193840754912082</v>
@@ -646,10 +649,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -657,11 +660,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
       </c>
       <c r="G9">
         <v>-1.3944283036287639</v>
@@ -675,22 +678,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
       </c>
       <c r="G10">
         <v>-2.803143165271063</v>
@@ -704,22 +707,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
       </c>
       <c r="G11">
         <v>-0.42784510148462052</v>
@@ -733,22 +736,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
       </c>
       <c r="G12">
         <v>-1.3001218445827889</v>
@@ -762,22 +765,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
       </c>
       <c r="G13">
         <v>-2.813494993779742</v>
@@ -791,22 +794,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
       </c>
       <c r="G14">
         <v>-0.30982714606405432</v>
@@ -820,22 +823,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
       </c>
       <c r="G15">
         <v>-0.91048429016526389</v>
@@ -849,22 +852,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
       </c>
       <c r="G16">
         <v>-1.8988649206575541</v>
@@ -878,22 +881,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-      <c r="F17">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
       </c>
       <c r="G17">
         <v>-1.46678084442261</v>
@@ -907,22 +910,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>200</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
       </c>
       <c r="G18">
         <v>-1.4820373228125501</v>
@@ -936,22 +939,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>200</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
       </c>
       <c r="G19">
         <v>-1.4972938012025001</v>
@@ -965,22 +968,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>0.1</v>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
       </c>
       <c r="G20">
         <v>-1.5125502795924499</v>
@@ -994,22 +997,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G21">
         <v>-1.5278067579824</v>
@@ -1023,22 +1026,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G22">
         <v>-1.54306323637235</v>
@@ -1052,19 +1055,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F23">
         <v>0.1</v>
@@ -1081,19 +1084,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>0.5</v>
@@ -1110,22 +1113,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>50</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
         <v>-1.5888326715422001</v>
@@ -1139,22 +1142,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>200</v>
       </c>
       <c r="F26">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G26">
         <v>-1.6040891499321499</v>
@@ -1168,22 +1171,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>-1.6193456283220999</v>
@@ -1197,19 +1200,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1226,22 +1229,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D29">
         <v>12</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>-1.649858585102</v>
@@ -1255,13 +1258,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -1270,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G30">
         <v>-1.66511506349195</v>
@@ -1284,22 +1287,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D31">
         <v>12</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G31">
         <v>-1.6803715418819001</v>
@@ -1313,19 +1316,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D32">
         <v>12</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F32">
         <v>0.1</v>
@@ -1342,19 +1345,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D33">
         <v>12</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>0.5</v>
@@ -1371,13 +1374,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D34">
         <v>12</v>
@@ -1386,7 +1389,7 @@
         <v>50</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G34">
         <v>-1.72614097705175</v>
@@ -1400,13 +1403,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -1415,7 +1418,7 @@
         <v>200</v>
       </c>
       <c r="F35">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G35">
         <v>-1.7413974554417</v>
@@ -1429,22 +1432,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
       <c r="E36">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>-1.75665393383164</v>
@@ -1458,19 +1461,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1487,22 +1490,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F38">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>-1.7871668906115401</v>
@@ -1516,22 +1519,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G39">
         <v>-1.8024233690014899</v>
@@ -1545,22 +1548,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G40">
         <v>-1.81767984739144</v>
@@ -1574,19 +1577,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F41">
         <v>0.1</v>
@@ -1603,22 +1606,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G42">
         <v>-1.84819280417134</v>
@@ -1632,22 +1635,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G43">
         <v>-1.8634492825612901</v>
@@ -1661,19 +1664,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F44">
         <v>0.1</v>
@@ -1690,22 +1693,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G45">
         <v>-1.8939622393411899</v>
@@ -1719,22 +1722,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G46">
         <v>-1.9092187177311399</v>
@@ -1748,19 +1751,19 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D47">
         <v>12</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F47">
         <v>0.1</v>
@@ -1777,22 +1780,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D48">
         <v>12</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G48">
         <v>-1.93973167451104</v>
@@ -1806,22 +1809,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G49">
         <v>-1.95498815290099</v>
@@ -1835,19 +1838,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F50">
         <v>0.1</v>
@@ -1864,22 +1867,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D51">
         <v>12</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G51">
         <v>-1.9855011096808901</v>
@@ -1893,13 +1896,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D52">
         <v>12</v>
@@ -1908,7 +1911,7 @@
         <v>50</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G52">
         <v>-2.0007575880708401</v>
@@ -1922,13 +1925,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D53">
         <v>12</v>
@@ -1937,7 +1940,7 @@
         <v>200</v>
       </c>
       <c r="F53">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G53">
         <v>-2.01601406646079</v>
@@ -1951,19 +1954,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D54">
         <v>12</v>
       </c>
       <c r="E54">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>0.5</v>
@@ -1980,22 +1983,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D55">
         <v>12</v>
       </c>
       <c r="E55">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G55">
         <v>-2.04652702324069</v>
@@ -2009,22 +2012,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="F56">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G56">
         <v>-2.0617835016306301</v>
@@ -2038,16 +2041,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E57">
         <v>10</v>
@@ -2067,22 +2070,22 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G58">
         <v>-2.0922964584105301</v>
@@ -2096,22 +2099,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F59">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G59">
         <v>-2.1075529368004799</v>
@@ -2125,16 +2128,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>50</v>
@@ -2154,22 +2157,22 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>50</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G61">
         <v>-2.13806589358038</v>
@@ -2183,22 +2186,22 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F62">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G62">
         <v>-2.1533223719703298</v>
@@ -2212,19 +2215,19 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F63">
         <v>0.5</v>
@@ -2241,22 +2244,22 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>200</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G64">
         <v>-2.1838353287502299</v>
@@ -2270,22 +2273,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D65">
         <v>12</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F65">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G65">
         <v>-2.1990918071401802</v>
@@ -2299,13 +2302,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D66">
         <v>12</v>
@@ -2314,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="F66">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G66">
         <v>-2.21434828553013</v>
@@ -2328,22 +2331,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D67">
         <v>12</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G67">
         <v>-2.2296047639200798</v>
@@ -2357,22 +2360,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D68">
         <v>12</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F68">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="G68">
         <v>-2.2448612423100198</v>
@@ -2386,22 +2389,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D69">
         <v>12</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>-2.2601177206999701</v>
@@ -2415,19 +2418,19 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D70">
         <v>12</v>
       </c>
       <c r="E70">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2444,22 +2447,22 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
+        <v>-2</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
         <v>10</v>
       </c>
-      <c r="D71">
-        <v>12</v>
-      </c>
-      <c r="E71">
-        <v>200</v>
-      </c>
       <c r="F71">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>-2.2906306774798701</v>
@@ -2473,22 +2476,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
+        <v>-2</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+      <c r="E72">
         <v>10</v>
       </c>
-      <c r="D72">
-        <v>12</v>
-      </c>
-      <c r="E72">
-        <v>200</v>
-      </c>
       <c r="F72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>-2.30588715586982</v>
@@ -2502,19 +2505,19 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73">
+        <v>-2</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
         <v>10</v>
-      </c>
-      <c r="D73">
-        <v>12</v>
-      </c>
-      <c r="E73">
-        <v>200</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2531,22 +2534,22 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F74">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>-2.33640011264972</v>
@@ -2560,22 +2563,22 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>-2.3516565910396698</v>
@@ -2589,19 +2592,19 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2618,22 +2621,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>50</v>
       </c>
       <c r="F77">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>-2.3821695478195699</v>
@@ -2647,22 +2650,22 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>-2.3974260262095202</v>
@@ -2676,19 +2679,19 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2705,22 +2708,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <v>200</v>
       </c>
       <c r="F80">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>-2.4279389829894198</v>
@@ -2734,22 +2737,22 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G81">
         <v>-2.44319546137937</v>
@@ -2763,22 +2766,22 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E82">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G82">
         <v>-2.4584519397693199</v>
@@ -2792,13 +2795,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>12</v>
@@ -2821,13 +2824,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>12</v>
@@ -2836,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G84">
         <v>-2.4889648965492102</v>
@@ -2850,13 +2853,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>12</v>
@@ -2865,7 +2868,7 @@
         <v>10</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G85">
         <v>-2.50422137493916</v>
@@ -2879,19 +2882,19 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>12</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F86">
         <v>0.1</v>
@@ -2908,13 +2911,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>12</v>
@@ -2923,7 +2926,7 @@
         <v>50</v>
       </c>
       <c r="F87">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G87">
         <v>-2.53473433171906</v>
@@ -2937,13 +2940,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>12</v>
@@ -2952,7 +2955,7 @@
         <v>50</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G88">
         <v>-2.5499908101090099</v>
@@ -2966,19 +2969,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>12</v>
       </c>
       <c r="E89">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F89">
         <v>0.1</v>
@@ -2995,22 +2998,22 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>12</v>
       </c>
       <c r="E90">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F90">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G90">
         <v>-2.5805037668889099</v>
@@ -3024,13 +3027,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>12</v>
@@ -3039,7 +3042,7 @@
         <v>200</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G91">
         <v>-2.5957602452788602</v>
@@ -3053,19 +3056,19 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F92">
         <v>0.1</v>
@@ -3082,22 +3085,22 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F93">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G93">
         <v>-2.6262732020587598</v>
@@ -3111,22 +3114,22 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G94">
         <v>-2.6415296804487101</v>
@@ -3140,22 +3143,22 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F95">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G95">
         <v>-2.6567861588386599</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -3178,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>0.5</v>
@@ -3198,7 +3201,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -3207,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E97">
         <v>5</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G97">
         <v>-2.6872991156185599</v>
@@ -3227,22 +3230,22 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F98">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G98">
         <v>-2.7025555940085102</v>
@@ -3256,7 +3259,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -3265,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F99">
         <v>0.5</v>
@@ -3285,22 +3288,22 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G100">
         <v>-2.7330685507884098</v>
@@ -3314,7 +3317,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -3323,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E101">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F101">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G101">
         <v>-2.7483250291783601</v>
@@ -3343,19 +3346,19 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E102">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F102">
         <v>0.5</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -3381,13 +3384,13 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G103">
         <v>-2.7788379859582499</v>
@@ -3401,10 +3404,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3413,10 +3416,10 @@
         <v>12</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F104">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G104">
         <v>-2.7940944643482002</v>
@@ -3430,7 +3433,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -3442,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F105">
         <v>0.5</v>
@@ -3459,10 +3462,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3471,10 +3474,10 @@
         <v>12</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G106">
         <v>-2.8246074211280998</v>
@@ -3488,10 +3491,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3500,10 +3503,10 @@
         <v>12</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F107">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G107">
         <v>-2.8398638995180501</v>
@@ -3517,10 +3520,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3529,10 +3532,10 @@
         <v>12</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G108">
         <v>-2.8551203779079999</v>
@@ -3546,10 +3549,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3558,10 +3561,10 @@
         <v>12</v>
       </c>
       <c r="E109">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G109">
         <v>-2.8703768562979501</v>
@@ -3575,10 +3578,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3587,10 +3590,10 @@
         <v>12</v>
       </c>
       <c r="E110">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F110">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="G110">
         <v>-2.8856333346879</v>
@@ -3604,7 +3607,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -3616,10 +3619,10 @@
         <v>12</v>
       </c>
       <c r="E111">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>-2.9008898130778502</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -3645,7 +3648,7 @@
         <v>12</v>
       </c>
       <c r="E112">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -3662,10 +3665,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3674,10 +3677,10 @@
         <v>12</v>
       </c>
       <c r="E113">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>-2.9314027698577498</v>
@@ -3691,7 +3694,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -3703,10 +3706,10 @@
         <v>12</v>
       </c>
       <c r="E114">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>-2.9466592482477001</v>
@@ -3720,10 +3723,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3732,7 +3735,7 @@
         <v>12</v>
       </c>
       <c r="E115">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3749,22 +3752,22 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F116">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>-2.9771722050276002</v>
@@ -3778,22 +3781,22 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>-2.99242868341755</v>
@@ -3807,19 +3810,19 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3836,22 +3839,22 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E119">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F119">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>-3.02294164019745</v>
@@ -3865,22 +3868,22 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B120">
         <v>3</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>-3.0381981185873999</v>
@@ -3894,19 +3897,19 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E121">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3923,22 +3926,22 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F122">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>-3.0687110753672902</v>
@@ -3952,22 +3955,22 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F123">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G123">
         <v>-3.08396755375724</v>
@@ -3981,22 +3984,22 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E124">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G124">
         <v>-3.0992240321471902</v>
@@ -4010,19 +4013,19 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E125">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F125">
         <v>0.1</v>
@@ -4039,22 +4042,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B126">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E126">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G126">
         <v>-3.1297369889270898</v>
@@ -4068,22 +4071,22 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E127">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G127">
         <v>-3.1449934673170401</v>
@@ -4097,19 +4100,19 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D128">
         <v>12</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F128">
         <v>0.1</v>
@@ -4126,22 +4129,22 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129">
         <v>12</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F129">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G129">
         <v>-3.1755064240969402</v>
@@ -4155,22 +4158,22 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130">
         <v>12</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G130">
         <v>-3.19076290248689</v>
@@ -4184,19 +4187,19 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D131">
         <v>12</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F131">
         <v>0.1</v>
@@ -4213,22 +4216,22 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B132">
         <v>3</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D132">
         <v>12</v>
       </c>
       <c r="E132">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G132">
         <v>-3.2212758592667901</v>
@@ -4242,22 +4245,22 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133">
         <v>12</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G133">
         <v>-3.2365323376567399</v>
@@ -4271,19 +4274,19 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>12</v>
       </c>
       <c r="E134">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F134">
         <v>0.1</v>
@@ -4300,22 +4303,22 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>12</v>
       </c>
       <c r="E135">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F135">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G135">
         <v>-3.2670452944366399</v>
@@ -4329,22 +4332,22 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>12</v>
       </c>
       <c r="E136">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G136">
         <v>-3.2823017728265902</v>
@@ -4358,22 +4361,22 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D137">
         <v>12</v>
       </c>
       <c r="E137">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F137">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G137">
         <v>-3.29755825121654</v>
@@ -4387,19 +4390,19 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B138">
         <v>3</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D138">
         <v>12</v>
       </c>
       <c r="E138">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F138">
         <v>0.5</v>
@@ -4416,22 +4419,22 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139">
         <v>12</v>
       </c>
       <c r="E139">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G139">
         <v>-3.3280712079964299</v>
@@ -4445,22 +4448,22 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F140">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G140">
         <v>-3.3433276863863801</v>
@@ -4474,19 +4477,19 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F141">
         <v>0.5</v>
@@ -4503,22 +4506,22 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G142">
         <v>-3.3738406431662802</v>
@@ -4532,22 +4535,22 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B143">
         <v>3</v>
       </c>
       <c r="C143">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F143">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G143">
         <v>-3.38909712155623</v>
@@ -4561,19 +4564,19 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F144">
         <v>0.5</v>
@@ -4590,22 +4593,22 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G145">
         <v>-3.4196100783361301</v>
@@ -4619,22 +4622,22 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E146">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F146">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G146">
         <v>-3.4348665567260799</v>
@@ -4654,13 +4657,13 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E147">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F147">
         <v>0.5</v>
@@ -4677,22 +4680,22 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E148">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G148">
         <v>-3.4653795135059799</v>
@@ -4706,22 +4709,22 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E149">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F149">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G149">
         <v>-3.4806359918959302</v>
@@ -4735,22 +4738,22 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C150">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E150">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F150">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G150">
         <v>-3.49589247028588</v>
@@ -4764,22 +4767,22 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E151">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G151">
         <v>-3.5111489486758298</v>
@@ -4793,22 +4796,22 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D152">
         <v>12</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F152">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="G152">
         <v>-3.5264054270657801</v>
@@ -4822,13 +4825,13 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B153">
         <v>3</v>
       </c>
       <c r="C153">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>12</v>
@@ -4837,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>-3.5416619054557299</v>
@@ -4851,19 +4854,19 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
       <c r="C154">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>12</v>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4880,22 +4883,22 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D155">
         <v>12</v>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F155">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G155">
         <v>-3.57217486223563</v>
@@ -4909,22 +4912,22 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B156">
         <v>3</v>
       </c>
       <c r="C156">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>12</v>
       </c>
       <c r="E156">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G156">
         <v>-3.5874313406255798</v>
@@ -4938,19 +4941,19 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C157">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D157">
         <v>12</v>
       </c>
       <c r="E157">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -4967,13 +4970,13 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
       <c r="C158">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>12</v>
@@ -4982,7 +4985,7 @@
         <v>20</v>
       </c>
       <c r="F158">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>-3.6179442974054701</v>
@@ -4996,22 +4999,22 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D159">
         <v>12</v>
       </c>
       <c r="E159">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <v>-3.6332007757954199</v>
@@ -5025,19 +5028,19 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>12</v>
       </c>
       <c r="E160">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -5054,22 +5057,22 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D161">
         <v>12</v>
       </c>
       <c r="E161">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F161">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G161">
         <v>-3.66371373257532</v>
@@ -5083,13 +5086,13 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D162">
         <v>12</v>
@@ -5098,7 +5101,7 @@
         <v>100</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G162">
         <v>-3.6789702109652702</v>
@@ -5112,19 +5115,19 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D163">
         <v>12</v>
       </c>
       <c r="E163">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -5141,22 +5144,22 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="B164">
         <v>4</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E164">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F164">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <v>-3.7094831677451698</v>
@@ -5170,22 +5173,22 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F165">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G165">
         <v>-3.7247396461351201</v>
@@ -5199,22 +5202,22 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E166">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F166">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G166">
         <v>-3.7399961245250699</v>
@@ -5228,22 +5231,22 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F167">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G167">
         <v>-3.7552526029150202</v>
@@ -5257,22 +5260,22 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F168">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G168">
         <v>-3.77050908130497</v>
@@ -5286,22 +5289,22 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="B169">
         <v>4</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F169">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G169">
         <v>-3.7857655596949198</v>
@@ -5315,22 +5318,22 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D170">
         <v>12</v>
       </c>
       <c r="E170">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F170">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G170">
         <v>-3.80102203808487</v>
@@ -5344,22 +5347,22 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D171">
         <v>12</v>
       </c>
       <c r="E171">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F171">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G171">
         <v>-3.8162785164748199</v>
@@ -5373,13 +5376,13 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>12</v>
@@ -5388,7 +5391,7 @@
         <v>50</v>
       </c>
       <c r="F172">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G172">
         <v>-3.8315349948647701</v>
@@ -5402,13 +5405,13 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B173">
         <v>4</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D173">
         <v>12</v>
@@ -5417,7 +5420,7 @@
         <v>50</v>
       </c>
       <c r="F173">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G173">
         <v>-3.8467914732547199</v>
@@ -5431,22 +5434,22 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D174">
         <v>12</v>
       </c>
       <c r="E174">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F174">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G174">
         <v>-3.8620479516446702</v>
@@ -5460,13 +5463,13 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D175">
         <v>12</v>
@@ -5475,7 +5478,7 @@
         <v>200</v>
       </c>
       <c r="F175">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G175">
         <v>-3.8773044300346098</v>
@@ -5489,22 +5492,22 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="B176">
         <v>4</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E176">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F176">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G176">
         <v>-3.89256090842456</v>
@@ -5518,22 +5521,22 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E177">
         <v>10</v>
       </c>
       <c r="F177">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="G177">
         <v>-3.9078173868145099</v>
@@ -5547,16 +5550,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="B178">
         <v>4</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E178">
         <v>50</v>
@@ -5576,22 +5579,22 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="B179">
         <v>4</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E179">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F179">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="G179">
         <v>-3.9383303435944099</v>
@@ -5605,22 +5608,22 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E180">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F180">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G180">
         <v>-3.9535868219843602</v>
@@ -5634,22 +5637,22 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F181">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G181">
         <v>-3.96884330037431</v>
@@ -5663,13 +5666,13 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D182">
         <v>12</v>
@@ -5678,7 +5681,7 @@
         <v>10</v>
       </c>
       <c r="F182">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G182">
         <v>-3.9840997787642598</v>
@@ -5692,13 +5695,13 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D183">
         <v>12</v>
@@ -5707,7 +5710,7 @@
         <v>10</v>
       </c>
       <c r="F183">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G183">
         <v>-3.9993562571542101</v>
@@ -5721,22 +5724,22 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="B184">
         <v>4</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D184">
         <v>12</v>
       </c>
       <c r="E184">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F184">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G184">
         <v>-4.0146127355441603</v>
@@ -5750,22 +5753,22 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D185">
         <v>12</v>
       </c>
       <c r="E185">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F185">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G185">
         <v>-4.0298692139341101</v>
@@ -5779,22 +5782,22 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D186">
         <v>12</v>
       </c>
       <c r="E186">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F186">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G186">
         <v>-4.0451256923240599</v>
@@ -5808,22 +5811,22 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D187">
         <v>12</v>
       </c>
       <c r="E187">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F187">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G187">
         <v>-4.0603821707140098</v>
@@ -5837,22 +5840,22 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="B188">
         <v>4</v>
       </c>
       <c r="C188">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E188">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F188">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G188">
         <v>-4.0756386491039596</v>
@@ -5866,22 +5869,22 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F189">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G189">
         <v>-4.0908951274939103</v>
@@ -5895,22 +5898,22 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C190">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F190">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G190">
         <v>-4.1061516058838601</v>
@@ -5924,22 +5927,22 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="B191">
         <v>4</v>
       </c>
       <c r="C191">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F191">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G191">
         <v>-4.1214080842738099</v>
@@ -5953,22 +5956,22 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B192">
         <v>4</v>
       </c>
       <c r="C192">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E192">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F192">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="G192">
         <v>-4.1366645626637597</v>
@@ -5982,19 +5985,19 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="B193">
         <v>4</v>
       </c>
       <c r="C193">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E193">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F193">
         <v>0.7</v>
@@ -6011,22 +6014,22 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="B194">
         <v>4</v>
       </c>
       <c r="C194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D194">
         <v>12</v>
       </c>
       <c r="E194">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F194">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="G194">
         <v>-4.1671775194436496</v>
@@ -6040,22 +6043,22 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D195">
         <v>12</v>
       </c>
       <c r="E195">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F195">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <v>-4.1824339978336003</v>
@@ -6069,22 +6072,22 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D196">
         <v>12</v>
       </c>
       <c r="E196">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F196">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G196">
         <v>-4.1976904762235501</v>
@@ -6098,22 +6101,22 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D197">
         <v>12</v>
       </c>
       <c r="E197">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F197">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G197">
         <v>-4.2129469546134999</v>
@@ -6127,22 +6130,22 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D198">
         <v>12</v>
       </c>
       <c r="E198">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F198">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <v>-4.2282034330034497</v>
@@ -6156,22 +6159,22 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="B199">
         <v>4</v>
       </c>
       <c r="C199">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D199">
         <v>12</v>
       </c>
       <c r="E199">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F199">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <v>-4.2434599113934004</v>
@@ -6180,6 +6183,1949 @@
         <v>2.34567153564381</v>
       </c>
       <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>159</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="D200">
+        <v>12</v>
+      </c>
+      <c r="E200">
+        <v>20</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>-4.2587163897833502</v>
+      </c>
+      <c r="H200">
+        <v>2.3579097080964502</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>56</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+      <c r="D201">
+        <v>12</v>
+      </c>
+      <c r="E201">
+        <v>50</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>-4.2739728681732903</v>
+      </c>
+      <c r="H201">
+        <v>2.3701478805490899</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>162</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202">
+        <v>12</v>
+      </c>
+      <c r="E202">
+        <v>50</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>-4.2892293465632401</v>
+      </c>
+      <c r="H202">
+        <v>2.38238605300173</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>243</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>12</v>
+      </c>
+      <c r="E203">
+        <v>50</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>-4.3044858249531899</v>
+      </c>
+      <c r="H203">
+        <v>2.3946242254543599</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>165</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>12</v>
+      </c>
+      <c r="E204">
+        <v>100</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>-4.3197423033431397</v>
+      </c>
+      <c r="H204">
+        <v>2.4068623979070001</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>59</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205">
+        <v>200</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>-4.3349987817330904</v>
+      </c>
+      <c r="H205">
+        <v>2.4191005703596402</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>248</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <v>12</v>
+      </c>
+      <c r="E206">
+        <v>200</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>-4.3502552601230402</v>
+      </c>
+      <c r="H206">
+        <v>2.4313387428122799</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>167</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>8</v>
+      </c>
+      <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>0.1</v>
+      </c>
+      <c r="G207">
+        <v>-4.36551173851299</v>
+      </c>
+      <c r="H207">
+        <v>2.44357691526492</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>170</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+      <c r="D208">
+        <v>12</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208">
+        <v>0.1</v>
+      </c>
+      <c r="G208">
+        <v>-4.3807682169029398</v>
+      </c>
+      <c r="H208">
+        <v>2.4558150877175602</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>61</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>8</v>
+      </c>
+      <c r="D209">
+        <v>12</v>
+      </c>
+      <c r="E209">
+        <v>10</v>
+      </c>
+      <c r="F209">
+        <v>0.1</v>
+      </c>
+      <c r="G209">
+        <v>-4.3960246952928896</v>
+      </c>
+      <c r="H209">
+        <v>2.4680532601701999</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>173</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>12</v>
+      </c>
+      <c r="E210">
+        <v>10</v>
+      </c>
+      <c r="F210">
+        <v>0.1</v>
+      </c>
+      <c r="G210">
+        <v>-4.4112811736828403</v>
+      </c>
+      <c r="H210">
+        <v>2.48029143262284</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>250</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+      <c r="D211">
+        <v>12</v>
+      </c>
+      <c r="E211">
+        <v>10</v>
+      </c>
+      <c r="F211">
+        <v>0.1</v>
+      </c>
+      <c r="G211">
+        <v>-4.4265376520727902</v>
+      </c>
+      <c r="H211">
+        <v>2.4925296050754802</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>176</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>8</v>
+      </c>
+      <c r="D212">
+        <v>12</v>
+      </c>
+      <c r="E212">
+        <v>20</v>
+      </c>
+      <c r="F212">
+        <v>0.1</v>
+      </c>
+      <c r="G212">
+        <v>-4.44179413046274</v>
+      </c>
+      <c r="H212">
+        <v>2.5047677775281199</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>64</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>12</v>
+      </c>
+      <c r="E213">
+        <v>50</v>
+      </c>
+      <c r="F213">
+        <v>0.1</v>
+      </c>
+      <c r="G213">
+        <v>-4.4570506088526898</v>
+      </c>
+      <c r="H213">
+        <v>2.51700594998076</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>179</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>12</v>
+      </c>
+      <c r="E214">
+        <v>50</v>
+      </c>
+      <c r="F214">
+        <v>0.1</v>
+      </c>
+      <c r="G214">
+        <v>-4.4723070872426396</v>
+      </c>
+      <c r="H214">
+        <v>2.5292441224334001</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>255</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215">
+        <v>12</v>
+      </c>
+      <c r="E215">
+        <v>50</v>
+      </c>
+      <c r="F215">
+        <v>0.1</v>
+      </c>
+      <c r="G215">
+        <v>-4.4875635656325903</v>
+      </c>
+      <c r="H215">
+        <v>2.5414822948860398</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>182</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>8</v>
+      </c>
+      <c r="D216">
+        <v>12</v>
+      </c>
+      <c r="E216">
+        <v>100</v>
+      </c>
+      <c r="F216">
+        <v>0.1</v>
+      </c>
+      <c r="G216">
+        <v>-4.5028200440225401</v>
+      </c>
+      <c r="H216">
+        <v>2.55372046733868</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>67</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+      <c r="D217">
+        <v>12</v>
+      </c>
+      <c r="E217">
+        <v>200</v>
+      </c>
+      <c r="F217">
+        <v>0.1</v>
+      </c>
+      <c r="G217">
+        <v>-4.5180765224124899</v>
+      </c>
+      <c r="H217">
+        <v>2.5659586397913201</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>260</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="D218">
+        <v>12</v>
+      </c>
+      <c r="E218">
+        <v>200</v>
+      </c>
+      <c r="F218">
+        <v>0.1</v>
+      </c>
+      <c r="G218">
+        <v>-4.5333330008024397</v>
+      </c>
+      <c r="H218">
+        <v>2.5781968122439598</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>251</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+      <c r="D219">
+        <v>12</v>
+      </c>
+      <c r="E219">
+        <v>10</v>
+      </c>
+      <c r="F219">
+        <v>0.3</v>
+      </c>
+      <c r="G219">
+        <v>-4.5485894791923798</v>
+      </c>
+      <c r="H219">
+        <v>2.5904349846965999</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>256</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+      <c r="D220">
+        <v>12</v>
+      </c>
+      <c r="E220">
+        <v>50</v>
+      </c>
+      <c r="F220">
+        <v>0.3</v>
+      </c>
+      <c r="G220">
+        <v>-4.5638459575823296</v>
+      </c>
+      <c r="H220">
+        <v>2.6026731571492401</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>261</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>8</v>
+      </c>
+      <c r="D221">
+        <v>12</v>
+      </c>
+      <c r="E221">
+        <v>200</v>
+      </c>
+      <c r="F221">
+        <v>0.3</v>
+      </c>
+      <c r="G221">
+        <v>-4.5791024359722803</v>
+      </c>
+      <c r="H221">
+        <v>2.6149113296018802</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>168</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>8</v>
+      </c>
+      <c r="D222">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>0.5</v>
+      </c>
+      <c r="G222">
+        <v>-4.5943589143622301</v>
+      </c>
+      <c r="H222">
+        <v>2.6271495020545199</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>171</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>8</v>
+      </c>
+      <c r="D223">
+        <v>12</v>
+      </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
+      <c r="F223">
+        <v>0.5</v>
+      </c>
+      <c r="G223">
+        <v>-4.6096153927521799</v>
+      </c>
+      <c r="H223">
+        <v>2.6393876745071601</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>62</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>12</v>
+      </c>
+      <c r="E224">
+        <v>10</v>
+      </c>
+      <c r="F224">
+        <v>0.5</v>
+      </c>
+      <c r="G224">
+        <v>-4.6248718711421297</v>
+      </c>
+      <c r="H224">
+        <v>2.6516258469598002</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>174</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>8</v>
+      </c>
+      <c r="D225">
+        <v>12</v>
+      </c>
+      <c r="E225">
+        <v>10</v>
+      </c>
+      <c r="F225">
+        <v>0.5</v>
+      </c>
+      <c r="G225">
+        <v>-4.6401283495320804</v>
+      </c>
+      <c r="H225">
+        <v>2.6638640194124301</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>252</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226">
+        <v>8</v>
+      </c>
+      <c r="D226">
+        <v>12</v>
+      </c>
+      <c r="E226">
+        <v>10</v>
+      </c>
+      <c r="F226">
+        <v>0.5</v>
+      </c>
+      <c r="G226">
+        <v>-4.6553848279220302</v>
+      </c>
+      <c r="H226">
+        <v>2.6761021918650698</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>177</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227">
+        <v>12</v>
+      </c>
+      <c r="E227">
+        <v>20</v>
+      </c>
+      <c r="F227">
+        <v>0.5</v>
+      </c>
+      <c r="G227">
+        <v>-4.67064130631198</v>
+      </c>
+      <c r="H227">
+        <v>2.68834036431771</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>65</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+      <c r="D228">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>50</v>
+      </c>
+      <c r="F228">
+        <v>0.5</v>
+      </c>
+      <c r="G228">
+        <v>-4.6858977847019299</v>
+      </c>
+      <c r="H228">
+        <v>2.7005785367703501</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>180</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+      <c r="D229">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>50</v>
+      </c>
+      <c r="F229">
+        <v>0.5</v>
+      </c>
+      <c r="G229">
+        <v>-4.7011542630918797</v>
+      </c>
+      <c r="H229">
+        <v>2.7128167092229898</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>257</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+      <c r="D230">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>50</v>
+      </c>
+      <c r="F230">
+        <v>0.5</v>
+      </c>
+      <c r="G230">
+        <v>-4.7164107414818304</v>
+      </c>
+      <c r="H230">
+        <v>2.7250548816756299</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>183</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>8</v>
+      </c>
+      <c r="D231">
+        <v>12</v>
+      </c>
+      <c r="E231">
+        <v>100</v>
+      </c>
+      <c r="F231">
+        <v>0.5</v>
+      </c>
+      <c r="G231">
+        <v>-4.7316672198717802</v>
+      </c>
+      <c r="H231">
+        <v>2.7372930541282701</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>68</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
+      <c r="D232">
+        <v>12</v>
+      </c>
+      <c r="E232">
+        <v>200</v>
+      </c>
+      <c r="F232">
+        <v>0.5</v>
+      </c>
+      <c r="G232">
+        <v>-4.74692369826173</v>
+      </c>
+      <c r="H232">
+        <v>2.7495312265809102</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>262</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="C233">
+        <v>8</v>
+      </c>
+      <c r="D233">
+        <v>12</v>
+      </c>
+      <c r="E233">
+        <v>200</v>
+      </c>
+      <c r="F233">
+        <v>0.5</v>
+      </c>
+      <c r="G233">
+        <v>-4.7621801766516798</v>
+      </c>
+      <c r="H233">
+        <v>2.7617693990335499</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>253</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>8</v>
+      </c>
+      <c r="D234">
+        <v>12</v>
+      </c>
+      <c r="E234">
+        <v>10</v>
+      </c>
+      <c r="F234">
+        <v>0.7</v>
+      </c>
+      <c r="G234">
+        <v>-4.7774366550416296</v>
+      </c>
+      <c r="H234">
+        <v>2.77400757148619</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>258</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>8</v>
+      </c>
+      <c r="D235">
+        <v>12</v>
+      </c>
+      <c r="E235">
+        <v>50</v>
+      </c>
+      <c r="F235">
+        <v>0.7</v>
+      </c>
+      <c r="G235">
+        <v>-4.7926931334315803</v>
+      </c>
+      <c r="H235">
+        <v>2.7862457439388302</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>263</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>8</v>
+      </c>
+      <c r="D236">
+        <v>12</v>
+      </c>
+      <c r="E236">
+        <v>200</v>
+      </c>
+      <c r="F236">
+        <v>0.7</v>
+      </c>
+      <c r="G236">
+        <v>-4.8079496118215204</v>
+      </c>
+      <c r="H236">
+        <v>2.7984839163914699</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>169</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>8</v>
+      </c>
+      <c r="D237">
+        <v>12</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>-4.8232060902114702</v>
+      </c>
+      <c r="H237">
+        <v>2.81072208884411</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>172</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>8</v>
+      </c>
+      <c r="D238">
+        <v>12</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>-4.83846256860142</v>
+      </c>
+      <c r="H238">
+        <v>2.8229602612967502</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>63</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>8</v>
+      </c>
+      <c r="D239">
+        <v>12</v>
+      </c>
+      <c r="E239">
+        <v>10</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>-4.8537190469913698</v>
+      </c>
+      <c r="H239">
+        <v>2.8351984337493898</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>175</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>8</v>
+      </c>
+      <c r="D240">
+        <v>12</v>
+      </c>
+      <c r="E240">
+        <v>10</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>-4.8689755253813196</v>
+      </c>
+      <c r="H240">
+        <v>2.84743660620203</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>254</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+      <c r="D241">
+        <v>12</v>
+      </c>
+      <c r="E241">
+        <v>10</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>-4.8842320037712703</v>
+      </c>
+      <c r="H241">
+        <v>2.8596747786546701</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>178</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>8</v>
+      </c>
+      <c r="D242">
+        <v>12</v>
+      </c>
+      <c r="E242">
+        <v>20</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>-4.8994884821612201</v>
+      </c>
+      <c r="H242">
+        <v>2.8719129511073098</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>66</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>8</v>
+      </c>
+      <c r="D243">
+        <v>12</v>
+      </c>
+      <c r="E243">
+        <v>50</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>-4.9147449605511699</v>
+      </c>
+      <c r="H243">
+        <v>2.88415112355995</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>181</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>8</v>
+      </c>
+      <c r="D244">
+        <v>12</v>
+      </c>
+      <c r="E244">
+        <v>50</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>-4.9300014389411198</v>
+      </c>
+      <c r="H244">
+        <v>2.8963892960125901</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>259</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>8</v>
+      </c>
+      <c r="D245">
+        <v>12</v>
+      </c>
+      <c r="E245">
+        <v>50</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>-4.9452579173310696</v>
+      </c>
+      <c r="H245">
+        <v>2.9086274684652298</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>184</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>8</v>
+      </c>
+      <c r="D246">
+        <v>12</v>
+      </c>
+      <c r="E246">
+        <v>100</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>-4.9605143957210203</v>
+      </c>
+      <c r="H246">
+        <v>2.9208656409178602</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>69</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>8</v>
+      </c>
+      <c r="D247">
+        <v>12</v>
+      </c>
+      <c r="E247">
+        <v>200</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>-4.9757708741109701</v>
+      </c>
+      <c r="H247">
+        <v>2.9331038133704999</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>264</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>8</v>
+      </c>
+      <c r="D248">
+        <v>12</v>
+      </c>
+      <c r="E248">
+        <v>200</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>-4.9910273525009199</v>
+      </c>
+      <c r="H248">
+        <v>2.94534198582314</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>71</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>10</v>
+      </c>
+      <c r="D249">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>10</v>
+      </c>
+      <c r="F249">
+        <v>0.1</v>
+      </c>
+      <c r="G249">
+        <v>-5.0062838308908697</v>
+      </c>
+      <c r="H249">
+        <v>2.9575801582757801</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>74</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>10</v>
+      </c>
+      <c r="D250">
+        <v>12</v>
+      </c>
+      <c r="E250">
+        <v>50</v>
+      </c>
+      <c r="F250">
+        <v>0.1</v>
+      </c>
+      <c r="G250">
+        <v>-5.0215403092808204</v>
+      </c>
+      <c r="H250">
+        <v>2.9698183307284198</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>77</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>10</v>
+      </c>
+      <c r="D251">
+        <v>12</v>
+      </c>
+      <c r="E251">
+        <v>200</v>
+      </c>
+      <c r="F251">
+        <v>0.1</v>
+      </c>
+      <c r="G251">
+        <v>-5.0367967876707702</v>
+      </c>
+      <c r="H251">
+        <v>2.98205650318106</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>72</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>10</v>
+      </c>
+      <c r="D252">
+        <v>12</v>
+      </c>
+      <c r="E252">
+        <v>10</v>
+      </c>
+      <c r="F252">
+        <v>0.5</v>
+      </c>
+      <c r="G252">
+        <v>-5.05205326606072</v>
+      </c>
+      <c r="H252">
+        <v>2.9942946756337001</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>75</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>10</v>
+      </c>
+      <c r="D253">
+        <v>12</v>
+      </c>
+      <c r="E253">
+        <v>50</v>
+      </c>
+      <c r="F253">
+        <v>0.5</v>
+      </c>
+      <c r="G253">
+        <v>-5.0673097444506601</v>
+      </c>
+      <c r="H253">
+        <v>3.0065328480863398</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>78</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>10</v>
+      </c>
+      <c r="D254">
+        <v>12</v>
+      </c>
+      <c r="E254">
+        <v>200</v>
+      </c>
+      <c r="F254">
+        <v>0.5</v>
+      </c>
+      <c r="G254">
+        <v>-5.0825662228406099</v>
+      </c>
+      <c r="H254">
+        <v>3.0187710205389799</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>73</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>10</v>
+      </c>
+      <c r="D255">
+        <v>12</v>
+      </c>
+      <c r="E255">
+        <v>10</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>-5.0978227012305597</v>
+      </c>
+      <c r="H255">
+        <v>3.0310091929916201</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>76</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>10</v>
+      </c>
+      <c r="D256">
+        <v>12</v>
+      </c>
+      <c r="E256">
+        <v>50</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>-5.1130791796205104</v>
+      </c>
+      <c r="H256">
+        <v>3.0432473654442602</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>79</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>10</v>
+      </c>
+      <c r="D257">
+        <v>12</v>
+      </c>
+      <c r="E257">
+        <v>200</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>-5.1283356580104602</v>
+      </c>
+      <c r="H257">
+        <v>3.0554855378968999</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>81</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>12</v>
+      </c>
+      <c r="D258">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <v>10</v>
+      </c>
+      <c r="F258">
+        <v>0.1</v>
+      </c>
+      <c r="G258">
+        <v>-5.14359213640041</v>
+      </c>
+      <c r="H258">
+        <v>3.0677237103495401</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>84</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>12</v>
+      </c>
+      <c r="D259">
+        <v>12</v>
+      </c>
+      <c r="E259">
+        <v>50</v>
+      </c>
+      <c r="F259">
+        <v>0.1</v>
+      </c>
+      <c r="G259">
+        <v>-5.1588486147903598</v>
+      </c>
+      <c r="H259">
+        <v>3.0799618828021802</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>87</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>12</v>
+      </c>
+      <c r="D260">
+        <v>12</v>
+      </c>
+      <c r="E260">
+        <v>200</v>
+      </c>
+      <c r="F260">
+        <v>0.1</v>
+      </c>
+      <c r="G260">
+        <v>-5.1741050931803096</v>
+      </c>
+      <c r="H260">
+        <v>3.0922000552548199</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>82</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>12</v>
+      </c>
+      <c r="D261">
+        <v>12</v>
+      </c>
+      <c r="E261">
+        <v>10</v>
+      </c>
+      <c r="F261">
+        <v>0.5</v>
+      </c>
+      <c r="G261">
+        <v>-5.1893615715702603</v>
+      </c>
+      <c r="H261">
+        <v>3.10443822770746</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>85</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>12</v>
+      </c>
+      <c r="D262">
+        <v>12</v>
+      </c>
+      <c r="E262">
+        <v>50</v>
+      </c>
+      <c r="F262">
+        <v>0.5</v>
+      </c>
+      <c r="G262">
+        <v>-5.2046180499602102</v>
+      </c>
+      <c r="H262">
+        <v>3.1166764001601002</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>88</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>12</v>
+      </c>
+      <c r="D263">
+        <v>12</v>
+      </c>
+      <c r="E263">
+        <v>200</v>
+      </c>
+      <c r="F263">
+        <v>0.5</v>
+      </c>
+      <c r="G263">
+        <v>-5.21987452835016</v>
+      </c>
+      <c r="H263">
+        <v>3.1289145726127399</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>83</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>12</v>
+      </c>
+      <c r="D264">
+        <v>12</v>
+      </c>
+      <c r="E264">
+        <v>10</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>-5.2351310067401098</v>
+      </c>
+      <c r="H264">
+        <v>3.14115274506538</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>86</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>12</v>
+      </c>
+      <c r="D265">
+        <v>12</v>
+      </c>
+      <c r="E265">
+        <v>50</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>-5.2503874851300596</v>
+      </c>
+      <c r="H265">
+        <v>3.1533909175180201</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>89</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>12</v>
+      </c>
+      <c r="D266">
+        <v>12</v>
+      </c>
+      <c r="E266">
+        <v>200</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>-5.2656439635200103</v>
+      </c>
+      <c r="H266">
+        <v>3.1656290899706598</v>
+      </c>
+      <c r="I266">
         <v>0</v>
       </c>
     </row>
